--- a/Result/checksun/金融保險.xlsx
+++ b/Result/checksun/金融保險.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>45044836</v>
+        <v>108123025</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>79369263</v>
+        <v>98819316</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>53998589</v>
+        <v>135725202</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>45414850</v>
+        <v>85685413</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>7262268</v>
+        <v>42398988</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>30513863</v>
+        <v>78610814</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>17663339</v>
+        <v>57768972</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>12187785</v>
+        <v>15269035</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>51212750</v>
+        <v>62437802</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>22607224</v>
+        <v>27761952</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>22948935</v>
+        <v>30758568</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-3115799</v>
+        <v>-19240422</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>64407638</v>
+        <v>192962951</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>5688959</v>
+        <v>158259138</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>115715535</v>
+        <v>6191654</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>184890106</v>
+        <v>182775320</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>232729268</v>
+        <v>561568302</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>10111539</v>
+        <v>96480592</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-56334793</v>
+        <v>277001856</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-80159089</v>
+        <v>595833629</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-119635420</v>
+        <v>522148944</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>54220007</v>
+        <v>580270849</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>408998123</v>
+        <v>759629893</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>206004473</v>
+        <v>739426468</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>311431132</v>
+        <v>182714110</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>296945308</v>
+        <v>436751192</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-186958727</v>
+        <v>82016205</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-75753527</v>
+        <v>-310503734</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-389454944</v>
+        <v>-10934090</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>86673851</v>
+        <v>147447080</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-52963495</v>
+        <v>-64837678</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>529260828</v>
+        <v>318552409</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>182301081</v>
+        <v>242096893</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>-181786712</v>
+        <v>-227313046</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>-150739974</v>
+        <v>-542094927</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-121527852</v>
+        <v>-49946605</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>394616641</v>
+        <v>369058212</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-114087952</v>
+        <v>240766691</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-233464825</v>
+        <v>230855849</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-145902212</v>
+        <v>-292529164</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-210828279</v>
+        <v>-367553563</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>253923009</v>
+        <v>256789142</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>120343783</v>
+        <v>236979009</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>565682922</v>
+        <v>345462708</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>210397665</v>
+        <v>-104435382</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-266970735</v>
+        <v>222398261</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-722408206</v>
+        <v>-321097548</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-207531532</v>
+        <v>-676848069</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>96793106</v>
+        <v>226984587</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>90074291</v>
+        <v>210347037</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>34912108</v>
+        <v>193719425</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>34468747</v>
+        <v>191630643</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>69508804</v>
+        <v>188323403</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>106366156</v>
+        <v>192966499</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>95722734</v>
+        <v>144019400</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>50763942</v>
+        <v>108958059</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>52441161</v>
+        <v>105533503</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>61439162</v>
+        <v>45019141</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>68050657</v>
+        <v>59553725</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>34159182</v>
+        <v>-7879972</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>1663422093</v>
+        <v>3052616002</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>620045143</v>
+        <v>2100973367</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>781506356</v>
+        <v>2123177143</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>947876664</v>
+        <v>913586300</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>736287157</v>
+        <v>1850706427</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>626726361</v>
+        <v>559248003</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>441317245</v>
+        <v>-624103933</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>744641067</v>
+        <v>-448762566</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>714944426</v>
+        <v>-1464338559</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-475607609</v>
+        <v>-2811101311</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>369778203</v>
+        <v>-1819390684</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-782422784</v>
+        <v>-3414871574</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>8189441672</v>
+        <v>13761845431</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>7150675215</v>
+        <v>14047010570</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>2324679183</v>
+        <v>14158187930</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>2897351669</v>
+        <v>13237552616</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-3463519408</v>
+        <v>12929202753</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>2541015304</v>
+        <v>13539845016</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>2675052090</v>
+        <v>8987092859</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>10359854763</v>
+        <v>10946209543</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>9292493443</v>
+        <v>6009580793</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>7665148857</v>
+        <v>519854645</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>6032867398</v>
+        <v>-1486885109</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>1706336269</v>
+        <v>-6193148050</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>131403702</v>
+        <v>2978848540</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>1723761692</v>
+        <v>3838421069</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>3101094924</v>
+        <v>4979107708</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>2528400829</v>
+        <v>3201608489</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>889060895</v>
+        <v>2644800545</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>623792092</v>
+        <v>1404937959</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>319044009</v>
+        <v>190703444</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>1225598482</v>
+        <v>1127490600</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1254220692</v>
+        <v>1072441682</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>354163651</v>
+        <v>56493219</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>530141168</v>
+        <v>253877746</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>-473074825</v>
+        <v>579521323</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>34622328</v>
+        <v>12915765</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>23866289</v>
+        <v>7492124</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>-28479006</v>
+        <v>7486377</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>-34038362</v>
+        <v>-56686351</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>-36271421</v>
+        <v>5332480</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>23042041</v>
+        <v>8603128</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>12331799</v>
+        <v>-45418375</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>19897256</v>
+        <v>-26163210</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>12923342</v>
+        <v>-85416805</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-34979788</v>
+        <v>-146474256</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>21706645</v>
+        <v>-74636569</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>-27362255</v>
+        <v>-145082231</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>-455233099</v>
+        <v>75426133</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>248677184</v>
+        <v>937858814</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>219491285</v>
+        <v>930072960</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>-89349614</v>
+        <v>1179210326</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-1457059699</v>
+        <v>1132347582</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>-685754726</v>
+        <v>267044166</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>620008846</v>
+        <v>939251273</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>2146241329</v>
+        <v>2124708986</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>1396336401</v>
+        <v>385519127</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>648551094</v>
+        <v>-747485446</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>443165952</v>
+        <v>-543026531</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>-443537509</v>
+        <v>118199040</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>1418116815</v>
+        <v>2893099375</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>331191456</v>
+        <v>2654439078</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>597239840</v>
+        <v>3076386016</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>1003600666</v>
+        <v>3034040034</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>516814486</v>
+        <v>3923252454</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>679182077</v>
+        <v>2830927704</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>471381894</v>
+        <v>1815990450</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>1806433136</v>
+        <v>2955302265</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -23553,7 +23553,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>1799964099</v>
+        <v>1864132323</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>1559057474</v>
+        <v>726627949</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>1600004832</v>
+        <v>935716768</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24072,7 +24072,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>351781528</v>
+        <v>958689811</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>793161069</v>
+        <v>3559259594</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>861534417</v>
+        <v>3581940484</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>699181025</v>
+        <v>2503042267</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>658873911</v>
+        <v>1389951295</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>2266883860</v>
+        <v>2416852562</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>2300762410</v>
+        <v>1372146841</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>2107224614</v>
+        <v>965091509</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>453522207</v>
+        <v>368088603</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>-496901168</v>
+        <v>-787827179</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-1376147230</v>
+        <v>-2019827921</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>-303553505</v>
+        <v>-1979118359</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>-431714401</v>
+        <v>-2446371289</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>957227497</v>
+        <v>2722794684</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>743118417</v>
+        <v>3080424719</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>-1253380914</v>
+        <v>3131717315</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-1260802575</v>
+        <v>1042212361</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>1030757644</v>
+        <v>2833067803</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>3243347607</v>
+        <v>3618513233</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>3026369762</v>
+        <v>2880977411</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>1306548658</v>
+        <v>1323859082</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>1141750622</v>
+        <v>-517086611</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>-723354826</v>
+        <v>-2202255346</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>495761501</v>
+        <v>-884393361</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>-766584996</v>
+        <v>-839948600</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>631176136</v>
+        <v>1185664584</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>691453028</v>
+        <v>2412964130</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>2490643798</v>
+        <v>3243705540</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>1483942315</v>
+        <v>864900645</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>1310034686</v>
+        <v>1992281594</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>622373473</v>
+        <v>303947184</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -29523,7 +29523,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>-929453867</v>
+        <v>-847073515</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>411476416</v>
+        <v>227688397</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>130688269</v>
+        <v>-771638387</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>310412197</v>
+        <v>489399087</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>270770492</v>
+        <v>516177596</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>-449114558</v>
+        <v>-699252273</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>899176641</v>
+        <v>1406234143</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>724568199</v>
+        <v>-66284289</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -30931,7 +30931,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>507791533</v>
+        <v>1704259151</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>634182325</v>
+        <v>827876960</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-1728227242</v>
+        <v>735911566</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>-343295877</v>
+        <v>808570701</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>-127124823</v>
+        <v>637043712</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>937374754</v>
+        <v>2720578246</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>1539763495</v>
+        <v>1395767333</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>320819458</v>
+        <v>-396913747</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>1526764054</v>
+        <v>1021095695</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>-387896917</v>
+        <v>914484847</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>2735681727</v>
+        <v>5934966661</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>-4044049007</v>
+        <v>2920488906</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>-3220895140</v>
+        <v>2264931072</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>4482713028</v>
+        <v>4190819589</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>2192256821</v>
+        <v>8564100882</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>1402618590</v>
+        <v>3830821329</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>-1283428094</v>
+        <v>343196104</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>4772281092</v>
+        <v>4176357218</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>4083207622</v>
+        <v>574128543</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>991534655</v>
+        <v>-2378189982</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -34495,7 +34495,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>1599562969</v>
+        <v>-1856927438</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>-1655004883</v>
+        <v>-1244882824</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>1214601657</v>
+        <v>-7573677247</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>241768640</v>
+        <v>-11988791264</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>-5539445987</v>
+        <v>-12501259198</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>-6846780001</v>
+        <v>-10313969340</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>-14543667132</v>
+        <v>-11184403597</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -35754,7 +35754,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>-8433702015</v>
+        <v>-8293274370</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>-1941498903</v>
+        <v>-4161235822</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>2313107228</v>
+        <v>753649188</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>1471888804</v>
+        <v>-2207385080</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -36462,7 +36462,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>-1525690436</v>
+        <v>-5875055683</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>1046156307</v>
+        <v>-3303136492</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -36808,7 +36808,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>-1331461159</v>
+        <v>-2426911536</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-9642441</v>
+        <v>1200809322</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>472409158</v>
+        <v>1521361777</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -37351,7 +37351,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>147942760</v>
+        <v>1891208850</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>409146610</v>
+        <v>1278071156</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>493833881</v>
+        <v>839739459</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>1153217290</v>
+        <v>999152440</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>801305153</v>
+        <v>657719751</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>555118738</v>
+        <v>194768641</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>590048800</v>
+        <v>355476830</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>67619393</v>
+        <v>-305986514</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>-209213160</v>
+        <v>-11786320</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>-744113650</v>
+        <v>-616034604</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>-89941056</v>
+        <v>-143036914</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>-81938962</v>
+        <v>-128641246</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>-25549509</v>
+        <v>-77786406</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>33699647</v>
+        <v>-68924145</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>-26723905</v>
+        <v>-24287678</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>-82700307</v>
+        <v>-71876924</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>-86795505</v>
+        <v>-134915462</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>-19978379</v>
+        <v>-30791477</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -40561,7 +40561,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>30463410</v>
+        <v>-13526185</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>-15828287</v>
+        <v>-2694851</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -40923,7 +40923,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>22414606</v>
+        <v>45681368</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>-19640027</v>
+        <v>-22061468</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -41285,7 +41285,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>87831757</v>
+        <v>72790757</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>26693136</v>
+        <v>86316263</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>26868717</v>
+        <v>112038627</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -41828,7 +41828,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>11690710</v>
+        <v>98448444</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>-7705035</v>
+        <v>154359621</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -42190,7 +42190,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>-50314171</v>
+        <v>106038591</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>-26731710</v>
+        <v>62505600</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>67328162</v>
+        <v>134057651</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>135484081</v>
+        <v>97791832</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -42914,7 +42914,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>113489444</v>
+        <v>22579029</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>94736494</v>
+        <v>26887285</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>20868681</v>
+        <v>40714951</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -43457,7 +43457,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>-15054019</v>
+        <v>-60505895</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -43638,7 +43638,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>-63243423</v>
+        <v>-46300502</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>-68803466</v>
+        <v>-3211736</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -44000,7 +44000,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>-70967578</v>
+        <v>38511497</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>-93062769</v>
+        <v>112348931</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -44362,7 +44362,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>-15381381</v>
+        <v>100523032</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>25515702</v>
+        <v>149363001</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>110005690</v>
+        <v>231107486</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>80973111</v>
+        <v>159503026</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -45086,7 +45086,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>83963373</v>
+        <v>114708508</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>95406010</v>
+        <v>108611569</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -45448,7 +45448,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>34931302</v>
+        <v>48953563</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -45629,7 +45629,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>-116195019</v>
+        <v>-118427069</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>-11203561</v>
+        <v>-19863068</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>32682387</v>
+        <v>66951218</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>38497442</v>
+        <v>15732310</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -46353,7 +46353,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-96905375</v>
+        <v>18014806</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>-37072198</v>
+        <v>18905541</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>-40729492</v>
+        <v>-46317049</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -46896,7 +46896,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>88245868</v>
+        <v>79319706</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>71341029</v>
+        <v>24026103</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -47258,7 +47258,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>17964360</v>
+        <v>-34785467</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>26674313</v>
+        <v>3578146</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>-15363290</v>
+        <v>-92212489</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -47801,7 +47801,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>-95034412</v>
+        <v>-72184361</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -47982,7 +47982,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>-75945848</v>
+        <v>-42492623</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -48163,7 +48163,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>-72149930</v>
+        <v>-53512919</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>-73465000</v>
+        <v>-63422572</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -48525,7 +48525,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>-6116530</v>
+        <v>-18436802</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>54715489</v>
+        <v>47270464</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>96315051</v>
+        <v>48617017</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -49068,7 +49068,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>39569755</v>
+        <v>-8881033</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -49249,7 +49249,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>-36078478</v>
+        <v>-52009936</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>-86272623</v>
+        <v>-94205534</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -49611,7 +49611,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>-51890027</v>
+        <v>-53829115</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -49792,7 +49792,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>28633453</v>
+        <v>-55603549</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -49981,7 +49981,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>1376784</v>
+        <v>3239906</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>1133368</v>
+        <v>4151929</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>-680443</v>
+        <v>4120157</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -50516,7 +50516,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>-680955</v>
+        <v>1705410</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>3505191</v>
+        <v>7976732</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -50862,7 +50862,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>3487378</v>
+        <v>7330673</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -51035,7 +51035,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>2544077</v>
+        <v>6986780</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -51208,7 +51208,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>-486630</v>
+        <v>3573469</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>1313222</v>
+        <v>4832752</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -51554,7 +51554,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>-157712</v>
+        <v>1990849</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -51727,7 +51727,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>4958171</v>
+        <v>4816398</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -51900,7 +51900,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>2530073</v>
+        <v>8283923</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -52081,7 +52081,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>-50663856</v>
+        <v>-7535728</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -52262,7 +52262,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>70598743</v>
+        <v>-4832146</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -52443,7 +52443,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>76503024</v>
+        <v>161407242</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -52624,7 +52624,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>65711536</v>
+        <v>50619545</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -52805,7 +52805,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>-84433605</v>
+        <v>61530922</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -52986,7 +52986,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>-68120316</v>
+        <v>48812792</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -53167,7 +53167,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>-22583408</v>
+        <v>-152149904</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -53348,7 +53348,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>9002716</v>
+        <v>-22963338</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -53529,7 +53529,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>153024534</v>
+        <v>-24055694</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -53702,7 +53702,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>7491417</v>
+        <v>-195258297</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>136961811</v>
+        <v>-209057307</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -54048,7 +54048,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>-36091426</v>
+        <v>-404124280</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -54229,7 +54229,7 @@
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>-78664406</v>
+        <v>45395993</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -54410,7 +54410,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>37177398</v>
+        <v>155198723</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -54591,7 +54591,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>124491891</v>
+        <v>207244266</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -54772,7 +54772,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>113686102</v>
+        <v>139602571</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -54953,7 +54953,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>52099718</v>
+        <v>160639887</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -55126,7 +55126,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>17144676</v>
+        <v>20250305</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -55299,7 +55299,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>10374297</v>
+        <v>-48092498</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -55472,7 +55472,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>65921607</v>
+        <v>15834769</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -55645,7 +55645,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>65607699</v>
+        <v>2883786</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -55818,7 +55818,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>15542172</v>
+        <v>-73550125</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -55991,7 +55991,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>42618562</v>
+        <v>-64880068</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -56164,7 +56164,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>-62502070</v>
+        <v>-36971518</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>
@@ -56345,7 +56345,7 @@
         </is>
       </c>
       <c r="AB314" t="n">
-        <v>35432315</v>
+        <v>39715081</v>
       </c>
       <c r="AC314" t="inlineStr">
         <is>
@@ -56526,7 +56526,7 @@
         </is>
       </c>
       <c r="AB315" t="n">
-        <v>4975950</v>
+        <v>9551515</v>
       </c>
       <c r="AC315" t="inlineStr">
         <is>
@@ -56707,7 +56707,7 @@
         </is>
       </c>
       <c r="AB316" t="n">
-        <v>19637307</v>
+        <v>29873801</v>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
@@ -56888,7 +56888,7 @@
         </is>
       </c>
       <c r="AB317" t="n">
-        <v>11345744</v>
+        <v>6199475</v>
       </c>
       <c r="AC317" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="AB318" t="n">
-        <v>6391293</v>
+        <v>22345082</v>
       </c>
       <c r="AC318" t="inlineStr">
         <is>
@@ -57250,7 +57250,7 @@
         </is>
       </c>
       <c r="AB319" t="n">
-        <v>-15338323</v>
+        <v>9079519</v>
       </c>
       <c r="AC319" t="inlineStr">
         <is>
@@ -57423,7 +57423,7 @@
         </is>
       </c>
       <c r="AB320" t="n">
-        <v>-7062978</v>
+        <v>-13456024</v>
       </c>
       <c r="AC320" t="inlineStr">
         <is>
@@ -57596,7 +57596,7 @@
         </is>
       </c>
       <c r="AB321" t="n">
-        <v>-1815728</v>
+        <v>11144407</v>
       </c>
       <c r="AC321" t="inlineStr">
         <is>
@@ -57769,7 +57769,7 @@
         </is>
       </c>
       <c r="AB322" t="n">
-        <v>25574817</v>
+        <v>36599900</v>
       </c>
       <c r="AC322" t="inlineStr">
         <is>
@@ -57942,7 +57942,7 @@
         </is>
       </c>
       <c r="AB323" t="n">
-        <v>1916709</v>
+        <v>29907736</v>
       </c>
       <c r="AC323" t="inlineStr">
         <is>
@@ -58115,7 +58115,7 @@
         </is>
       </c>
       <c r="AB324" t="n">
-        <v>17769517</v>
+        <v>58913945</v>
       </c>
       <c r="AC324" t="inlineStr">
         <is>
@@ -58288,7 +58288,7 @@
         </is>
       </c>
       <c r="AB325" t="n">
-        <v>-1156975</v>
+        <v>68033760</v>
       </c>
       <c r="AC325" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         </is>
       </c>
       <c r="AB326" t="n">
-        <v>327971791</v>
+        <v>300136556</v>
       </c>
       <c r="AC326" t="inlineStr">
         <is>
@@ -58634,7 +58634,7 @@
         </is>
       </c>
       <c r="AB327" t="n">
-        <v>297591171</v>
+        <v>-96620232</v>
       </c>
       <c r="AC327" t="inlineStr">
         <is>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="AB328" t="n">
-        <v>433589559</v>
+        <v>334772920</v>
       </c>
       <c r="AC328" t="inlineStr">
         <is>
@@ -58980,7 +58980,7 @@
         </is>
       </c>
       <c r="AB329" t="n">
-        <v>332303873</v>
+        <v>-152872447</v>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
@@ -59153,7 +59153,7 @@
         </is>
       </c>
       <c r="AB330" t="n">
-        <v>-190522248</v>
+        <v>-227264800</v>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         </is>
       </c>
       <c r="AB331" t="n">
-        <v>-261385758</v>
+        <v>-191062103</v>
       </c>
       <c r="AC331" t="inlineStr">
         <is>
@@ -59499,7 +59499,7 @@
         </is>
       </c>
       <c r="AB332" t="n">
-        <v>-360139108</v>
+        <v>-600749438</v>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
@@ -59672,7 +59672,7 @@
         </is>
       </c>
       <c r="AB333" t="n">
-        <v>-203689155</v>
+        <v>-167064019</v>
       </c>
       <c r="AC333" t="inlineStr">
         <is>
@@ -59845,7 +59845,7 @@
         </is>
       </c>
       <c r="AB334" t="n">
-        <v>162569119</v>
+        <v>274408457</v>
       </c>
       <c r="AC334" t="inlineStr">
         <is>
@@ -60018,7 +60018,7 @@
         </is>
       </c>
       <c r="AB335" t="n">
-        <v>-125037212</v>
+        <v>-105380640</v>
       </c>
       <c r="AC335" t="inlineStr">
         <is>
@@ -60191,7 +60191,7 @@
         </is>
       </c>
       <c r="AB336" t="n">
-        <v>166946603</v>
+        <v>202875812</v>
       </c>
       <c r="AC336" t="inlineStr">
         <is>
@@ -60364,7 +60364,7 @@
         </is>
       </c>
       <c r="AB337" t="n">
-        <v>-92245464</v>
+        <v>309275129</v>
       </c>
       <c r="AC337" t="inlineStr">
         <is>
@@ -60537,7 +60537,7 @@
         </is>
       </c>
       <c r="AB338" t="n">
-        <v>-27148267</v>
+        <v>-8203967</v>
       </c>
       <c r="AC338" t="inlineStr">
         <is>
@@ -60718,7 +60718,7 @@
         </is>
       </c>
       <c r="AB339" t="n">
-        <v>-44259376</v>
+        <v>-89085478</v>
       </c>
       <c r="AC339" t="inlineStr">
         <is>
@@ -60899,7 +60899,7 @@
         </is>
       </c>
       <c r="AB340" t="n">
-        <v>-48777299</v>
+        <v>-84949440</v>
       </c>
       <c r="AC340" t="inlineStr">
         <is>
@@ -61080,7 +61080,7 @@
         </is>
       </c>
       <c r="AB341" t="n">
-        <v>-48711091</v>
+        <v>-75925356</v>
       </c>
       <c r="AC341" t="inlineStr">
         <is>
@@ -61261,7 +61261,7 @@
         </is>
       </c>
       <c r="AB342" t="n">
-        <v>-172834242</v>
+        <v>-70200179</v>
       </c>
       <c r="AC342" t="inlineStr">
         <is>
@@ -61442,7 +61442,7 @@
         </is>
       </c>
       <c r="AB343" t="n">
-        <v>-21407519</v>
+        <v>-82133522</v>
       </c>
       <c r="AC343" t="inlineStr">
         <is>
@@ -61623,7 +61623,7 @@
         </is>
       </c>
       <c r="AB344" t="n">
-        <v>67655391</v>
+        <v>71426099</v>
       </c>
       <c r="AC344" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         </is>
       </c>
       <c r="AB345" t="n">
-        <v>128008140</v>
+        <v>165544818</v>
       </c>
       <c r="AC345" t="inlineStr">
         <is>
@@ -61985,7 +61985,7 @@
         </is>
       </c>
       <c r="AB346" t="n">
-        <v>-14764622</v>
+        <v>39191000</v>
       </c>
       <c r="AC346" t="inlineStr">
         <is>
@@ -62166,7 +62166,7 @@
         </is>
       </c>
       <c r="AB347" t="n">
-        <v>-94869656</v>
+        <v>-33191239</v>
       </c>
       <c r="AC347" t="inlineStr">
         <is>
@@ -62347,7 +62347,7 @@
         </is>
       </c>
       <c r="AB348" t="n">
-        <v>-25374077</v>
+        <v>31782672</v>
       </c>
       <c r="AC348" t="inlineStr">
         <is>
@@ -62528,7 +62528,7 @@
         </is>
       </c>
       <c r="AB349" t="n">
-        <v>-45961381</v>
+        <v>35327493</v>
       </c>
       <c r="AC349" t="inlineStr">
         <is>
@@ -62717,7 +62717,7 @@
         </is>
       </c>
       <c r="AB350" t="n">
-        <v>39367881</v>
+        <v>11149188</v>
       </c>
       <c r="AC350" t="inlineStr">
         <is>
@@ -62898,7 +62898,7 @@
         </is>
       </c>
       <c r="AB351" t="n">
-        <v>12368856</v>
+        <v>3837912</v>
       </c>
       <c r="AC351" t="inlineStr">
         <is>
@@ -63071,7 +63071,7 @@
         </is>
       </c>
       <c r="AB352" t="n">
-        <v>-4619175</v>
+        <v>-919894</v>
       </c>
       <c r="AC352" t="inlineStr">
         <is>
@@ -63244,7 +63244,7 @@
         </is>
       </c>
       <c r="AB353" t="n">
-        <v>-5768745</v>
+        <v>-3503644</v>
       </c>
       <c r="AC353" t="inlineStr">
         <is>
@@ -63417,7 +63417,7 @@
         </is>
       </c>
       <c r="AB354" t="n">
-        <v>-26071743</v>
+        <v>-2872752</v>
       </c>
       <c r="AC354" t="inlineStr">
         <is>
@@ -63590,7 +63590,7 @@
         </is>
       </c>
       <c r="AB355" t="n">
-        <v>-15808053</v>
+        <v>-6966043</v>
       </c>
       <c r="AC355" t="inlineStr">
         <is>
@@ -63763,7 +63763,7 @@
         </is>
       </c>
       <c r="AB356" t="n">
-        <v>-22449948</v>
+        <v>-23721757</v>
       </c>
       <c r="AC356" t="inlineStr">
         <is>
@@ -63936,7 +63936,7 @@
         </is>
       </c>
       <c r="AB357" t="n">
-        <v>17540799</v>
+        <v>11056775</v>
       </c>
       <c r="AC357" t="inlineStr">
         <is>
@@ -64109,7 +64109,7 @@
         </is>
       </c>
       <c r="AB358" t="n">
-        <v>19507334</v>
+        <v>341501</v>
       </c>
       <c r="AC358" t="inlineStr">
         <is>
@@ -64282,7 +64282,7 @@
         </is>
       </c>
       <c r="AB359" t="n">
-        <v>24715049</v>
+        <v>-12498486</v>
       </c>
       <c r="AC359" t="inlineStr">
         <is>
@@ -64455,7 +64455,7 @@
         </is>
       </c>
       <c r="AB360" t="n">
-        <v>5658192</v>
+        <v>-13905528</v>
       </c>
       <c r="AC360" t="inlineStr">
         <is>
@@ -64628,7 +64628,7 @@
         </is>
       </c>
       <c r="AB361" t="n">
-        <v>-10665324</v>
+        <v>-42999175</v>
       </c>
       <c r="AC361" t="inlineStr">
         <is>
@@ -64801,7 +64801,7 @@
         </is>
       </c>
       <c r="AB362" t="n">
-        <v>-11508251</v>
+        <v>-59478665</v>
       </c>
       <c r="AC362" t="inlineStr">
         <is>
@@ -64982,7 +64982,7 @@
         </is>
       </c>
       <c r="AB363" t="n">
-        <v>-9323643</v>
+        <v>-58419560</v>
       </c>
       <c r="AC363" t="inlineStr">
         <is>
@@ -65163,7 +65163,7 @@
         </is>
       </c>
       <c r="AB364" t="n">
-        <v>-17764247</v>
+        <v>-48066391</v>
       </c>
       <c r="AC364" t="inlineStr">
         <is>
@@ -65344,7 +65344,7 @@
         </is>
       </c>
       <c r="AB365" t="n">
-        <v>-10407707</v>
+        <v>-38573271</v>
       </c>
       <c r="AC365" t="inlineStr">
         <is>
@@ -65525,7 +65525,7 @@
         </is>
       </c>
       <c r="AB366" t="n">
-        <v>-19651358</v>
+        <v>-32714066</v>
       </c>
       <c r="AC366" t="inlineStr">
         <is>
@@ -65706,7 +65706,7 @@
         </is>
       </c>
       <c r="AB367" t="n">
-        <v>-45549051</v>
+        <v>-31952723</v>
       </c>
       <c r="AC367" t="inlineStr">
         <is>
@@ -65887,7 +65887,7 @@
         </is>
       </c>
       <c r="AB368" t="n">
-        <v>-37562707</v>
+        <v>-32868954</v>
       </c>
       <c r="AC368" t="inlineStr">
         <is>
@@ -66068,7 +66068,7 @@
         </is>
       </c>
       <c r="AB369" t="n">
-        <v>-29444559</v>
+        <v>-23667478</v>
       </c>
       <c r="AC369" t="inlineStr">
         <is>
@@ -66249,7 +66249,7 @@
         </is>
       </c>
       <c r="AB370" t="n">
-        <v>15246907</v>
+        <v>11620819</v>
       </c>
       <c r="AC370" t="inlineStr">
         <is>
@@ -66430,7 +66430,7 @@
         </is>
       </c>
       <c r="AB371" t="n">
-        <v>9397143</v>
+        <v>4115111</v>
       </c>
       <c r="AC371" t="inlineStr">
         <is>
@@ -66611,7 +66611,7 @@
         </is>
       </c>
       <c r="AB372" t="n">
-        <v>16381851</v>
+        <v>13857616</v>
       </c>
       <c r="AC372" t="inlineStr">
         <is>
@@ -66792,7 +66792,7 @@
         </is>
       </c>
       <c r="AB373" t="n">
-        <v>-1650579</v>
+        <v>8453263</v>
       </c>
       <c r="AC373" t="inlineStr">
         <is>
@@ -66981,7 +66981,7 @@
         </is>
       </c>
       <c r="AB374" t="n">
-        <v>128053468</v>
+        <v>403294033</v>
       </c>
       <c r="AC374" t="inlineStr">
         <is>
@@ -67162,7 +67162,7 @@
         </is>
       </c>
       <c r="AB375" t="n">
-        <v>-97000634</v>
+        <v>209058663</v>
       </c>
       <c r="AC375" t="inlineStr">
         <is>
@@ -67343,7 +67343,7 @@
         </is>
       </c>
       <c r="AB376" t="n">
-        <v>276191411</v>
+        <v>440957501</v>
       </c>
       <c r="AC376" t="inlineStr">
         <is>
@@ -67524,7 +67524,7 @@
         </is>
       </c>
       <c r="AB377" t="n">
-        <v>269391946</v>
+        <v>368511367</v>
       </c>
       <c r="AC377" t="inlineStr">
         <is>
@@ -67705,7 +67705,7 @@
         </is>
       </c>
       <c r="AB378" t="n">
-        <v>122937289</v>
+        <v>564733202</v>
       </c>
       <c r="AC378" t="inlineStr">
         <is>
@@ -67886,7 +67886,7 @@
         </is>
       </c>
       <c r="AB379" t="n">
-        <v>231331</v>
+        <v>110760536</v>
       </c>
       <c r="AC379" t="inlineStr">
         <is>
@@ -68067,7 +68067,7 @@
         </is>
       </c>
       <c r="AB380" t="n">
-        <v>5848619</v>
+        <v>-107755872</v>
       </c>
       <c r="AC380" t="inlineStr">
         <is>
@@ -68248,7 +68248,7 @@
         </is>
       </c>
       <c r="AB381" t="n">
-        <v>183122008</v>
+        <v>226874981</v>
       </c>
       <c r="AC381" t="inlineStr">
         <is>
@@ -68421,7 +68421,7 @@
         </is>
       </c>
       <c r="AB382" t="n">
-        <v>164534759</v>
+        <v>-28783660</v>
       </c>
       <c r="AC382" t="inlineStr">
         <is>
@@ -68594,7 +68594,7 @@
         </is>
       </c>
       <c r="AB383" t="n">
-        <v>93270802</v>
+        <v>-276623023</v>
       </c>
       <c r="AC383" t="inlineStr">
         <is>
@@ -68767,7 +68767,7 @@
         </is>
       </c>
       <c r="AB384" t="n">
-        <v>258673905</v>
+        <v>-48172935</v>
       </c>
       <c r="AC384" t="inlineStr">
         <is>
@@ -68940,7 +68940,7 @@
         </is>
       </c>
       <c r="AB385" t="n">
-        <v>-54005554</v>
+        <v>-431697121</v>
       </c>
       <c r="AC385" t="inlineStr">
         <is>
@@ -69121,7 +69121,7 @@
         </is>
       </c>
       <c r="AB386" t="n">
-        <v>-196585482</v>
+        <v>-115446575</v>
       </c>
       <c r="AC386" t="inlineStr">
         <is>
@@ -69302,7 +69302,7 @@
         </is>
       </c>
       <c r="AB387" t="n">
-        <v>149364835</v>
+        <v>229121857</v>
       </c>
       <c r="AC387" t="inlineStr">
         <is>
@@ -69483,7 +69483,7 @@
         </is>
       </c>
       <c r="AB388" t="n">
-        <v>129509924</v>
+        <v>441053141</v>
       </c>
       <c r="AC388" t="inlineStr">
         <is>
@@ -69656,7 +69656,7 @@
         </is>
       </c>
       <c r="AB389" t="n">
-        <v>182807194</v>
+        <v>456580132</v>
       </c>
       <c r="AC389" t="inlineStr">
         <is>
@@ -69829,7 +69829,7 @@
         </is>
       </c>
       <c r="AB390" t="n">
-        <v>36521016</v>
+        <v>581668815</v>
       </c>
       <c r="AC390" t="inlineStr">
         <is>
@@ -70002,7 +70002,7 @@
         </is>
       </c>
       <c r="AB391" t="n">
-        <v>191020920</v>
+        <v>441964924</v>
       </c>
       <c r="AC391" t="inlineStr">
         <is>
@@ -70175,7 +70175,7 @@
         </is>
       </c>
       <c r="AB392" t="n">
-        <v>-101668287</v>
+        <v>83507367</v>
       </c>
       <c r="AC392" t="inlineStr">
         <is>
@@ -70348,7 +70348,7 @@
         </is>
       </c>
       <c r="AB393" t="n">
-        <v>43236006</v>
+        <v>-61720753</v>
       </c>
       <c r="AC393" t="inlineStr">
         <is>
@@ -70521,7 +70521,7 @@
         </is>
       </c>
       <c r="AB394" t="n">
-        <v>120522297</v>
+        <v>-236176319</v>
       </c>
       <c r="AC394" t="inlineStr">
         <is>
@@ -70694,7 +70694,7 @@
         </is>
       </c>
       <c r="AB395" t="n">
-        <v>375441225</v>
+        <v>-245475200</v>
       </c>
       <c r="AC395" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="AB396" t="n">
-        <v>501911793</v>
+        <v>-270343753</v>
       </c>
       <c r="AC396" t="inlineStr">
         <is>
@@ -71040,7 +71040,7 @@
         </is>
       </c>
       <c r="AB397" t="n">
-        <v>130421707</v>
+        <v>-526788863</v>
       </c>
       <c r="AC397" t="inlineStr">
         <is>
@@ -71221,7 +71221,7 @@
         </is>
       </c>
       <c r="AB398" t="n">
-        <v>1311623849</v>
+        <v>2424796224</v>
       </c>
       <c r="AC398" t="inlineStr">
         <is>
@@ -71402,7 +71402,7 @@
         </is>
       </c>
       <c r="AB399" t="n">
-        <v>1400005187</v>
+        <v>2367595612</v>
       </c>
       <c r="AC399" t="inlineStr">
         <is>
@@ -71583,7 +71583,7 @@
         </is>
       </c>
       <c r="AB400" t="n">
-        <v>1401530368</v>
+        <v>2182649490</v>
       </c>
       <c r="AC400" t="inlineStr">
         <is>
@@ -71764,7 +71764,7 @@
         </is>
       </c>
       <c r="AB401" t="n">
-        <v>1353787886</v>
+        <v>1893936410</v>
       </c>
       <c r="AC401" t="inlineStr">
         <is>
@@ -71945,7 +71945,7 @@
         </is>
       </c>
       <c r="AB402" t="n">
-        <v>320416739</v>
+        <v>1545665992</v>
       </c>
       <c r="AC402" t="inlineStr">
         <is>
@@ -72126,7 +72126,7 @@
         </is>
       </c>
       <c r="AB403" t="n">
-        <v>-454714060</v>
+        <v>911697933</v>
       </c>
       <c r="AC403" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="AB404" t="n">
-        <v>-240615511</v>
+        <v>320434169</v>
       </c>
       <c r="AC404" t="inlineStr">
         <is>
@@ -72488,7 +72488,7 @@
         </is>
       </c>
       <c r="AB405" t="n">
-        <v>647173686</v>
+        <v>1287806426</v>
       </c>
       <c r="AC405" t="inlineStr">
         <is>
@@ -72669,7 +72669,7 @@
         </is>
       </c>
       <c r="AB406" t="n">
-        <v>1235833182</v>
+        <v>1483976148</v>
       </c>
       <c r="AC406" t="inlineStr">
         <is>
@@ -72850,7 +72850,7 @@
         </is>
       </c>
       <c r="AB407" t="n">
-        <v>780764035</v>
+        <v>629890726</v>
       </c>
       <c r="AC407" t="inlineStr">
         <is>
@@ -73031,7 +73031,7 @@
         </is>
       </c>
       <c r="AB408" t="n">
-        <v>578075567</v>
+        <v>87352738</v>
       </c>
       <c r="AC408" t="inlineStr">
         <is>
@@ -73212,7 +73212,7 @@
         </is>
       </c>
       <c r="AB409" t="n">
-        <v>130578811</v>
+        <v>180000086</v>
       </c>
       <c r="AC409" t="inlineStr">
         <is>

--- a/Result/checksun/金融保險.xlsx
+++ b/Result/checksun/金融保險.xlsx
@@ -722,20 +722,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -941,20 +941,20 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1817,20 +1817,20 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3127,16 +3127,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="C14" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3565,20 +3565,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99</v>
+      </c>
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="B15" t="n">
-        <v>155</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -3787,17 +3787,17 @@
         <v>-1</v>
       </c>
       <c r="B16" t="n">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
         <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -4006,17 +4006,17 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4441,20 +4441,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>167</v>
+        <v>-24</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4663,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4879,20 +4879,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5532,20 +5532,20 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5758,13 +5758,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -5978,16 +5978,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6193,16 +6193,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6408,20 +6408,20 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6623,16 +6623,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6838,20 +6838,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -7056,13 +7056,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7268,20 +7268,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7909,16 +7909,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8123,17 +8123,17 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -8334,13 +8334,13 @@
         <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C37" t="n">
         <v>-1</v>
       </c>
       <c r="D37" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8545,13 +8545,13 @@
         <v>-1</v>
       </c>
       <c r="B38" t="n">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8753,16 +8753,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B39" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
       </c>
       <c r="D39" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -8964,16 +8964,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9178,17 +9178,17 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D41" t="n">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9386,20 +9386,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9600,17 +9600,17 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10229,13 +10229,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10437,20 +10437,20 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -10648,16 +10648,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -10859,16 +10859,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
-        <v>-23</v>
+        <v>-13</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11073,13 +11073,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="n">
-        <v>-91</v>
+        <v>-13</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -11281,20 +11281,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -11492,20 +11492,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="C52" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>189</v>
+        <v>-75</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11703,20 +11703,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -11914,20 +11914,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12543,16 +12543,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D57" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -12758,16 +12758,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -12976,17 +12976,17 @@
         <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13188,16 +13188,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13406,17 +13406,17 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -13618,20 +13618,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -13836,17 +13836,17 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>151</v>
+        <v>-10</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -14051,13 +14051,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -14263,20 +14263,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -14904,20 +14904,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15119,20 +15119,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B69" t="n">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -15337,13 +15337,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -15549,20 +15549,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C71" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -15764,16 +15764,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -15979,16 +15979,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -16194,20 +16194,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>70</v>
+        <v>-6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -16409,20 +16409,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -16627,17 +16627,17 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -17265,20 +17265,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -17480,16 +17480,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C80" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -17698,17 +17698,17 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -17913,13 +17913,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
         <v>-1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-6</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18125,20 +18125,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-41</v>
+        <v>-1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -18343,17 +18343,17 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -18555,20 +18555,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>120</v>
+        <v>-43</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -18773,17 +18773,17 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -18985,20 +18985,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19629,17 +19629,17 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -19841,16 +19841,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
         <v>-1</v>
       </c>
       <c r="D91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20056,16 +20056,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -20271,16 +20271,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -20486,20 +20486,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -20701,16 +20701,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -20919,17 +20919,17 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>46</v>
+        <v>-22</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -21131,10 +21131,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -21346,20 +21346,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -22011,20 +22011,20 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -22226,16 +22226,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20</v>
+      </c>
+      <c r="C102" t="n">
         <v>-1</v>
       </c>
-      <c r="B102" t="n">
-        <v>35</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22440,17 +22440,17 @@
         <v>-1</v>
       </c>
       <c r="B103" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -22648,20 +22648,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B104" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -22862,17 +22862,17 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D105" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -23070,20 +23070,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -23281,20 +23281,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C107" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23492,20 +23492,20 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -23703,20 +23703,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24332,20 +24332,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -24543,20 +24543,20 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -24757,13 +24757,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -24968,17 +24968,17 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-39</v>
+        <v>-10</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -25176,16 +25176,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>-29</v>
+        <v>-15</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -25387,20 +25387,20 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>34</v>
+        <v>-12</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -25598,20 +25598,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="B118" t="n">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C118" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>215</v>
+        <v>-26</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -25809,20 +25809,20 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -26020,20 +26020,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -26652,17 +26652,17 @@
         <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -26875,17 +26875,17 @@
         <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -27095,16 +27095,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -27310,20 +27310,20 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="C126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D126" t="n">
         <v>1</v>
       </c>
-      <c r="D126" t="n">
-        <v>11</v>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -27528,13 +27528,13 @@
         <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -27743,13 +27743,13 @@
         <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -27955,16 +27955,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -28173,13 +28173,13 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -28385,20 +28385,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -29045,17 +29045,17 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>-4</v>
+        <v>-76</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -29260,10 +29260,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>12</v>
@@ -29472,16 +29472,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -29695,16 +29695,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -29921,17 +29921,17 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-27</v>
+        <v>-2</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -30144,13 +30144,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -30364,20 +30364,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>135</v>
+        <v>-26</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -30590,17 +30590,17 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -30810,20 +30810,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31475,16 +31475,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -31698,16 +31698,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="C146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D146" t="n">
-        <v>-24</v>
+        <v>-31</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -31921,16 +31921,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" t="n">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -32136,20 +32136,20 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D148" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -32354,13 +32354,13 @@
         <v>3</v>
       </c>
       <c r="B149" t="n">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -32566,16 +32566,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150" t="n">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -32781,16 +32781,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -32999,13 +32999,13 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -33219,20 +33219,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -33884,16 +33884,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>-48</v>
+        <v>-29</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -34098,13 +34098,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="C157" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>-36</v>
+        <v>-28</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -34306,16 +34306,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -34517,16 +34517,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -34728,20 +34728,20 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D160" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -34939,20 +34939,20 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B161" t="n">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="n">
         <v>2</v>
       </c>
-      <c r="D161" t="n">
-        <v>49</v>
-      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -35150,20 +35150,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="C162" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>256</v>
+        <v>-6</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -35361,20 +35361,20 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -35572,20 +35572,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -36201,20 +36201,20 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -36416,20 +36416,20 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C168" t="n">
         <v>-2</v>
       </c>
       <c r="D168" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -36631,16 +36631,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -36846,16 +36846,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37061,20 +37061,20 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -37276,20 +37276,20 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -37491,20 +37491,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B173" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C173" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>70</v>
+        <v>-2</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -37709,13 +37709,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -37921,20 +37921,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -38562,20 +38562,20 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D178" t="n">
-        <v>-8</v>
+        <v>-72</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -38780,17 +38780,17 @@
         <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -38995,13 +38995,13 @@
         <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C180" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -39207,16 +39207,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -39422,16 +39422,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D182" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -39637,20 +39637,20 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -39852,20 +39852,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C184" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>93</v>
+        <v>-4</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -40070,17 +40070,17 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -40282,20 +40282,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -40942,17 +40942,17 @@
         <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -41162,16 +41162,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C190" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D190" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -41381,16 +41381,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -41592,20 +41592,20 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -41803,16 +41803,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B193" t="n">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -42014,20 +42014,20 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
+        <v>4</v>
+      </c>
+      <c r="B194" t="n">
+        <v>68</v>
+      </c>
+      <c r="C194" t="n">
         <v>2</v>
       </c>
-      <c r="B194" t="n">
-        <v>110</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
-      </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -42225,20 +42225,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -42439,10 +42439,10 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -42647,20 +42647,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -43276,16 +43276,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -43496,7 +43496,7 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -43713,10 +43713,10 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C202" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>-1</v>
@@ -43927,16 +43927,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -44144,20 +44144,20 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D204" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -44361,16 +44361,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B205" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -44578,20 +44578,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B206" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C206" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -44798,13 +44798,13 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -45012,20 +45012,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -45659,16 +45659,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -45890,20 +45890,20 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C212" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D212" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -46117,16 +46117,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B213" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -46336,20 +46336,20 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B214" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D214" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -46555,20 +46555,20 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B215" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C215" t="n">
         <v>2</v>
       </c>
       <c r="D215" t="n">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -46774,16 +46774,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B216" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -46993,20 +46993,20 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C217" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>94</v>
+        <v>-22</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -47212,20 +47212,20 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -47431,20 +47431,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -48084,16 +48084,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B222" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C222" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -48318,13 +48318,13 @@
         <v>0</v>
       </c>
       <c r="B223" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -48549,7 +48549,7 @@
         <v>-1</v>
       </c>
       <c r="B224" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C224" t="n">
         <v>-1</v>
@@ -48780,13 +48780,13 @@
         <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C225" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -49008,16 +49008,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
+        <v>0</v>
+      </c>
+      <c r="B226" t="n">
+        <v>25</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D226" t="n">
         <v>1</v>
-      </c>
-      <c r="B226" t="n">
-        <v>52</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" t="n">
-        <v>-8</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -49242,13 +49242,13 @@
         <v>1</v>
       </c>
       <c r="B227" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -49470,20 +49470,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B228" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>64</v>
+        <v>-10</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -49704,13 +49704,13 @@
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -49932,20 +49932,20 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -50621,20 +50621,20 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="C233" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D233" t="n">
-        <v>-27</v>
+        <v>-9</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -50843,13 +50843,13 @@
         <v>-2</v>
       </c>
       <c r="B234" t="n">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>-12</v>
+        <v>-46</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -51062,17 +51062,17 @@
         <v>-2</v>
       </c>
       <c r="B235" t="n">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>-6</v>
+        <v>-27</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -51281,17 +51281,17 @@
         <v>-2</v>
       </c>
       <c r="B236" t="n">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C236" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -51497,16 +51497,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B237" t="n">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -51716,16 +51716,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -51938,13 +51938,13 @@
         <v>-1</v>
       </c>
       <c r="B239" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C239" t="n">
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -52157,17 +52157,17 @@
         <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -52373,20 +52373,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -53029,13 +53029,13 @@
         <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="C244" t="n">
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -53248,13 +53248,13 @@
         <v>1</v>
       </c>
       <c r="B245" t="n">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>-19</v>
+        <v>-64</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -53464,16 +53464,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B246" t="n">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -53683,16 +53683,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="C247" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -53905,10 +53905,10 @@
         <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
         <v>30</v>
@@ -54121,16 +54121,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -54340,20 +54340,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B250" t="n">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="C250" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D250" t="n">
-        <v>175</v>
+        <v>-15</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -54562,17 +54562,17 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -54778,20 +54778,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -55431,20 +55431,20 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
+        <v>2</v>
+      </c>
+      <c r="B255" t="n">
+        <v>61</v>
+      </c>
+      <c r="C255" t="n">
         <v>1</v>
       </c>
-      <c r="B255" t="n">
-        <v>86</v>
-      </c>
-      <c r="C255" t="n">
-        <v>-2</v>
-      </c>
       <c r="D255" t="n">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -55654,20 +55654,20 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B256" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C256" t="n">
         <v>-1</v>
       </c>
       <c r="D256" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -55873,16 +55873,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B257" t="n">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -56092,20 +56092,20 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D258" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -56303,20 +56303,20 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C259" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D259" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -56514,20 +56514,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B260" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C260" t="n">
         <v>5</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -56725,20 +56725,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C261" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D261" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -56936,20 +56936,20 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -57147,20 +57147,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -57776,16 +57776,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -57990,13 +57990,13 @@
         <v>0</v>
       </c>
       <c r="B267" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C267" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -58198,13 +58198,13 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B268" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
         <v>-7</v>
@@ -58412,13 +58412,13 @@
         <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C269" t="n">
         <v>-1</v>
       </c>
       <c r="D269" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -58623,13 +58623,13 @@
         <v>1</v>
       </c>
       <c r="B270" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -58831,20 +58831,20 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B271" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -59042,20 +59042,20 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B272" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>61</v>
+        <v>-8</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -59256,13 +59256,13 @@
         <v>0</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -59464,20 +59464,20 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -60096,17 +60096,17 @@
         <v>0</v>
       </c>
       <c r="B277" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C277" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -60316,16 +60316,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B278" t="n">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -60539,20 +60539,20 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C279" t="n">
         <v>-2</v>
       </c>
       <c r="D279" t="n">
-        <v>10</v>
+        <v>-29</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -60754,20 +60754,20 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B280" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D280" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -60969,16 +60969,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B281" t="n">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D281" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -61184,16 +61184,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B282" t="n">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D282" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -61399,20 +61399,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -61617,10 +61617,10 @@
         <v>0</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
@@ -61829,20 +61829,20 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -62470,20 +62470,20 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B288" t="n">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="C288" t="n">
         <v>-1</v>
       </c>
       <c r="D288" t="n">
-        <v>-10</v>
+        <v>-92</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -62693,16 +62693,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B289" t="n">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D289" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -62919,13 +62919,13 @@
         <v>2</v>
       </c>
       <c r="B290" t="n">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C290" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -63139,20 +63139,20 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B291" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -63362,20 +63362,20 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B292" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C292" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -63588,13 +63588,13 @@
         <v>1</v>
       </c>
       <c r="B293" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
       </c>
       <c r="D293" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -63811,17 +63811,17 @@
         <v>0</v>
       </c>
       <c r="B294" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>35</v>
+        <v>-10</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -64026,13 +64026,13 @@
         <v>0</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -64241,17 +64241,17 @@
         <v>0</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -65064,16 +65064,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300" t="n">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
       </c>
       <c r="D300" t="n">
-        <v>-11</v>
+        <v>-37</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -65279,16 +65279,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B301" t="n">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C301" t="n">
         <v>-1</v>
       </c>
       <c r="D301" t="n">
-        <v>-17</v>
+        <v>-52</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -65494,20 +65494,20 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302" t="n">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
       </c>
       <c r="D302" t="n">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -65709,16 +65709,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B303" t="n">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D303" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -65927,13 +65927,13 @@
         <v>1</v>
       </c>
       <c r="B304" t="n">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -66139,20 +66139,20 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B305" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -66357,13 +66357,13 @@
         <v>0</v>
       </c>
       <c r="B306" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -66572,17 +66572,17 @@
         <v>0</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -66787,17 +66787,17 @@
         <v>0</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -67428,13 +67428,13 @@
         <v>0</v>
       </c>
       <c r="B311" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C311" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D311" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -67644,20 +67644,20 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B312" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C312" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D312" t="n">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F312" t="inlineStr"/>
@@ -67863,16 +67863,16 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B313" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C313" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D313" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -68082,16 +68082,16 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B314" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C314" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D314" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -68304,13 +68304,13 @@
         <v>6</v>
       </c>
       <c r="B315" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C315" t="n">
         <v>2</v>
       </c>
       <c r="D315" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -68523,13 +68523,13 @@
         <v>4</v>
       </c>
       <c r="B316" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C316" t="n">
         <v>3</v>
       </c>
       <c r="D316" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -68742,17 +68742,17 @@
         <v>1</v>
       </c>
       <c r="B317" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
       </c>
       <c r="D317" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F317" t="inlineStr"/>
@@ -68961,13 +68961,13 @@
         <v>0</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -69180,17 +69180,17 @@
         <v>0</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
@@ -69830,16 +69830,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B322" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C322" t="n">
         <v>-1</v>
       </c>
       <c r="D322" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -70045,20 +70045,20 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B323" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D323" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -70260,16 +70260,16 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B324" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D324" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -70475,16 +70475,16 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B325" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -70690,20 +70690,20 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B326" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D326" t="n">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -70905,16 +70905,16 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B327" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D327" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -71120,20 +71120,20 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B328" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C328" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
-        <v>85</v>
+        <v>-30</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -71335,16 +71335,16 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -71550,20 +71550,20 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -72194,17 +72194,17 @@
         <v>0</v>
       </c>
       <c r="B333" t="n">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -72405,17 +72405,17 @@
         <v>0</v>
       </c>
       <c r="B334" t="n">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D334" t="n">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -72613,16 +72613,16 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B335" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D335" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -72827,17 +72827,17 @@
         <v>0</v>
       </c>
       <c r="B336" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
         <v>-1</v>
       </c>
-      <c r="D336" t="n">
-        <v>4</v>
-      </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -73035,20 +73035,20 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B337" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>-41</v>
+        <v>17</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -73249,13 +73249,13 @@
         <v>0</v>
       </c>
       <c r="B338" t="n">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D338" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -73457,20 +73457,20 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B339" t="n">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
-        <v>113</v>
+        <v>-57</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
@@ -73671,17 +73671,17 @@
         <v>0</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -73882,17 +73882,17 @@
         <v>0</v>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F341" t="inlineStr"/>
@@ -74508,20 +74508,20 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B344" t="n">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>-18</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -74734,13 +74734,13 @@
         <v>1</v>
       </c>
       <c r="B345" t="n">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C345" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D345" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -74954,20 +74954,20 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B346" t="n">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
       </c>
       <c r="D346" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -75177,16 +75177,16 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B347" t="n">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C347" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D347" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -75400,16 +75400,16 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B348" t="n">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D348" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -75623,20 +75623,20 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B349" t="n">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -75846,16 +75846,16 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B350" t="n">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D350" t="n">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -76072,17 +76072,17 @@
         <v>0</v>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -76284,20 +76284,20 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
